--- a/Bill_Invoice.xlsx
+++ b/Bill_Invoice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniruddh\Documents\__Projects\PatientManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniruddh\Documents\__Projects\Clinic Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29983FB-6344-454A-BACD-BB4AA4C663B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D450B535-CE7F-4668-8A3A-F86FB3AFA728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>File Number</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Bill Number</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -75,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,36 +364,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
